--- a/Documentation/daily-scrum-meeting-template.xlsx
+++ b/Documentation/daily-scrum-meeting-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{C5B85591-B876-4F1D-A9D8-37A95A0E09F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F95351-7065-4270-9646-3AAB27331A8A}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{C5B85591-B876-4F1D-A9D8-37A95A0E09F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81351405-C72B-41C3-8BF3-4656F662E76A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="59">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Updated the spreadsheets</t>
+  </si>
+  <si>
+    <t>Further updating of speadsheets and report creation.</t>
   </si>
 </sst>
 </file>
@@ -599,18 +602,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,6 +644,18 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,7 +668,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -976,23 +979,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="19" t="s">
         <v>40</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="19" t="s">
         <v>41</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="19" t="s">
         <v>43</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="19" t="s">
         <v>45</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="19" t="s">
         <v>46</v>
       </c>
@@ -1048,57 +1051,57 @@
       <selection activeCell="M27" sqref="B9:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J1" s="2"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J2" s="2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J3" s="2"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J4" s="2"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J5" s="2"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="2"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1129,8 +1132,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -1141,25 +1144,25 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="34">
-        <v>0</v>
-      </c>
-      <c r="J9" s="37">
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="33">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
-        <v>22.6</v>
-      </c>
-      <c r="K9" s="38"/>
+        <v>24.1</v>
+      </c>
+      <c r="K9" s="34"/>
       <c r="L9" s="47" t="e">
         <f>I9/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="46">
         <f>J9/$J$27</f>
-        <v>0.58854166666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
+        <v>0.60401002506265655</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -1168,14 +1171,14 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="47"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -1184,14 +1187,14 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="47"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -1202,25 +1205,25 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="34">
-        <v>0</v>
-      </c>
-      <c r="J12" s="37">
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="33">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="47" t="e">
         <f t="shared" ref="L12" si="0">I12/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="46">
         <f t="shared" ref="M12" si="1">J12/$J$27</f>
-        <v>0.26822916666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
+        <v>0.25814536340852129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1229,14 +1232,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="47"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -1245,14 +1248,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="47"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -1263,25 +1266,25 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="34">
-        <v>0</v>
-      </c>
-      <c r="J15" s="37">
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="47" t="e">
         <f t="shared" ref="L15" si="2">I15/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <f t="shared" ref="M15" si="3">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -1290,14 +1293,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="47"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1306,14 +1309,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="47"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="33" t="s">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -1324,25 +1327,25 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="34">
-        <v>0</v>
-      </c>
-      <c r="J18" s="37">
+      <c r="I18" s="30">
+        <v>0</v>
+      </c>
+      <c r="J18" s="33">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="47" t="e">
         <f t="shared" ref="L18" si="4">I18/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="46">
         <f t="shared" ref="M18" si="5">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -1351,14 +1354,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -1367,14 +1370,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="47"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="33" t="s">
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -1385,25 +1388,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="34">
-        <v>0</v>
-      </c>
-      <c r="J21" s="37">
+      <c r="I21" s="30">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="38"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="47" t="e">
         <f t="shared" ref="L21" si="6">I21/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="46">
         <f t="shared" ref="M21" si="7">J21/$J$27</f>
-        <v>0.14322916666666666</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="33"/>
+        <v>0.13784461152882205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="29"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -1412,14 +1415,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="47"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="33"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="2:13" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -1428,14 +1431,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="33" t="s">
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -1446,25 +1449,25 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="34">
-        <v>0</v>
-      </c>
-      <c r="J24" s="37">
+      <c r="I24" s="30">
+        <v>0</v>
+      </c>
+      <c r="J24" s="33">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="47" t="e">
         <f t="shared" ref="L24" si="8">I24/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="46">
         <f t="shared" ref="M24" si="9">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="33"/>
+    <row r="25" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -1473,14 +1476,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="47"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="33"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="29"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -1489,13 +1492,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -1503,25 +1506,25 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <f>SUM(J9:K26)</f>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="K27" s="44"/>
+        <v>39.900000000000006</v>
+      </c>
+      <c r="K27" s="40"/>
       <c r="L27" s="47" t="e">
         <f t="shared" ref="L27" si="10">I27/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="46">
         <f t="shared" ref="M27" si="11">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -1529,13 +1532,13 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="47"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -1543,40 +1546,14 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="47"/>
-      <c r="M29" s="29"/>
+      <c r="M29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
     <mergeCell ref="M24:M26"/>
     <mergeCell ref="M27:M29"/>
     <mergeCell ref="J27:K29"/>
@@ -1586,6 +1563,32 @@
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="M18:M20"/>
     <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1602,69 +1605,69 @@
       <selection activeCell="M27" sqref="B9:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="3"/>
       <c r="L1" s="15"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="3"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="3"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="3"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="3"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1695,8 +1698,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -1717,25 +1720,25 @@
       <c r="H9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="30">
         <v>0.5</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="33">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="43">
+      <c r="K9" s="34"/>
+      <c r="L9" s="39">
         <f>I9/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="46">
         <f>J9/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -1754,14 +1757,14 @@
       <c r="H10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -1780,14 +1783,14 @@
       <c r="H11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -1798,23 +1801,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="37">
+      <c r="I12" s="30"/>
+      <c r="J12" s="33">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="43">
+      <c r="K12" s="34"/>
+      <c r="L12" s="39">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="46">
         <f t="shared" ref="M12" si="0">J12/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1823,14 +1826,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -1839,14 +1842,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -1857,23 +1860,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37">
+      <c r="I15" s="30"/>
+      <c r="J15" s="33">
         <f>I15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="43">
+      <c r="K15" s="34"/>
+      <c r="L15" s="39">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -1882,14 +1885,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1898,14 +1901,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="33" t="s">
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -1916,23 +1919,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37">
+      <c r="I18" s="30"/>
+      <c r="J18" s="33">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="43">
+      <c r="K18" s="34"/>
+      <c r="L18" s="39">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="46">
         <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -1941,14 +1944,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -1957,14 +1960,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="33" t="s">
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -1975,23 +1978,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="37">
+      <c r="I21" s="30"/>
+      <c r="J21" s="33">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="43">
+      <c r="K21" s="34"/>
+      <c r="L21" s="39">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="46">
         <f t="shared" ref="M21" si="3">J21/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="33"/>
+    <row r="22" spans="2:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="29"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -2000,14 +2003,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="33"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="2:13" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -2016,14 +2019,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="33" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -2034,23 +2037,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37">
+      <c r="I24" s="30"/>
+      <c r="J24" s="33">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="43">
+      <c r="K24" s="34"/>
+      <c r="L24" s="39">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="46">
         <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="33"/>
+    <row r="25" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -2059,14 +2062,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="33"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="29"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -2075,13 +2078,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2089,25 +2092,25 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <f>SUM(I9:I26)</f>
         <v>0.5</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <f>SUM(J9:K26)</f>
         <v>0.5</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="46">
+      <c r="K27" s="40"/>
+      <c r="L27" s="42">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="46">
         <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2115,13 +2118,13 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -2129,21 +2132,34 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="29"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -2152,26 +2168,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2188,69 +2191,69 @@
       <selection activeCell="M27" sqref="B9:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="3"/>
       <c r="L1" s="15"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="3"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="3"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="3"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="3"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2281,8 +2284,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -2303,25 +2306,25 @@
       <c r="H9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="30">
         <v>5.45</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="33">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="43">
+      <c r="K9" s="34"/>
+      <c r="L9" s="39">
         <f>I9/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="46">
         <f>J9/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -2340,14 +2343,14 @@
       <c r="H10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -2366,14 +2369,14 @@
       <c r="H11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -2384,23 +2387,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="37">
+      <c r="I12" s="30"/>
+      <c r="J12" s="33">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="43">
+      <c r="K12" s="34"/>
+      <c r="L12" s="39">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="46">
         <f t="shared" ref="M12" si="0">J12/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -2409,14 +2412,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -2425,14 +2428,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -2443,23 +2446,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37">
+      <c r="I15" s="30"/>
+      <c r="J15" s="33">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="43">
+      <c r="K15" s="34"/>
+      <c r="L15" s="39">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -2468,14 +2471,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -2484,14 +2487,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="33" t="s">
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -2502,23 +2505,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37">
+      <c r="I18" s="30"/>
+      <c r="J18" s="33">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="43">
+      <c r="K18" s="34"/>
+      <c r="L18" s="39">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="46">
         <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -2527,14 +2530,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -2543,14 +2546,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="33" t="s">
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -2561,23 +2564,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="37">
+      <c r="I21" s="30"/>
+      <c r="J21" s="33">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="43">
+      <c r="K21" s="34"/>
+      <c r="L21" s="39">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="46">
         <f t="shared" ref="M21" si="3">J21/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="33"/>
+    <row r="22" spans="2:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="29"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -2586,14 +2589,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="33"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="2:13" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -2602,14 +2605,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="33" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -2620,23 +2623,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37">
+      <c r="I24" s="30"/>
+      <c r="J24" s="33">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="43">
+      <c r="K24" s="34"/>
+      <c r="L24" s="39">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="46">
         <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="33"/>
+    <row r="25" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -2645,14 +2648,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="33"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="29"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -2661,13 +2664,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2675,25 +2678,25 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <f>SUM(I9:I26)</f>
         <v>5.45</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <f>SUM(J9:K26)</f>
         <v>5.95</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="46">
+      <c r="K27" s="40"/>
+      <c r="L27" s="42">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="46">
         <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2701,13 +2704,13 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -2715,21 +2718,34 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="29"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -2738,26 +2754,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2774,69 +2777,69 @@
       <selection activeCell="M27" sqref="B9:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="3"/>
       <c r="L1" s="15"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="3"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="3"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="3"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="3"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2867,8 +2870,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -2889,25 +2892,25 @@
       <c r="H9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="30">
         <v>5.45</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="33">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="43">
+      <c r="K9" s="34"/>
+      <c r="L9" s="39">
         <f>I9/$I$27*100</f>
         <v>52.153110047846894</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="46">
         <f>J9/$J$27</f>
         <v>0.69512195121951226</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
+    <row r="10" spans="2:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -2926,14 +2929,14 @@
       <c r="H10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -2952,14 +2955,14 @@
       <c r="H11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -2974,25 +2977,25 @@
       <c r="H12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="30">
         <v>5</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="33">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>5</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="43">
+      <c r="K12" s="34"/>
+      <c r="L12" s="39">
         <f>I12/$I$27*100</f>
         <v>47.846889952153113</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="46">
         <f t="shared" ref="M12" si="0">J12/$J$27</f>
         <v>0.30487804878048785</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -3005,14 +3008,14 @@
         <v>50</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -3021,14 +3024,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -3039,23 +3042,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37">
+      <c r="I15" s="30"/>
+      <c r="J15" s="33">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="43">
+      <c r="K15" s="34"/>
+      <c r="L15" s="39">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -3064,14 +3067,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -3080,14 +3083,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="33" t="s">
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -3098,23 +3101,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37">
+      <c r="I18" s="30"/>
+      <c r="J18" s="33">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="43">
+      <c r="K18" s="34"/>
+      <c r="L18" s="39">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="46">
         <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -3123,14 +3126,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -3139,14 +3142,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="33" t="s">
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -3157,23 +3160,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="37">
+      <c r="I21" s="30"/>
+      <c r="J21" s="33">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="43">
+      <c r="K21" s="34"/>
+      <c r="L21" s="39">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="46">
         <f t="shared" ref="M21" si="3">J21/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="33"/>
+    <row r="22" spans="2:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="29"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -3182,14 +3185,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="33"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="2:13" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -3198,14 +3201,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="33" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -3216,23 +3219,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37">
+      <c r="I24" s="30"/>
+      <c r="J24" s="33">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="43">
+      <c r="K24" s="34"/>
+      <c r="L24" s="39">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="46">
         <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="33"/>
+    <row r="25" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -3241,14 +3244,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="33"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="29"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -3257,13 +3260,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -3271,25 +3274,25 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <f>SUM(I9:I26)</f>
         <v>10.45</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <f>SUM(J9:K26)</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="46">
+      <c r="K27" s="40"/>
+      <c r="L27" s="42">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="46">
         <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -3297,13 +3300,13 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -3311,21 +3314,34 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="29"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -3334,26 +3350,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3370,69 +3373,69 @@
       <selection activeCell="M27" sqref="A9:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="3"/>
       <c r="L1" s="15"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="3"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="3"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="3"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="3"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -3463,9 +3466,9 @@
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -3486,26 +3489,26 @@
       <c r="H9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="30">
         <v>4.45</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="33">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="43">
+      <c r="K9" s="34"/>
+      <c r="L9" s="39">
         <f>I9/$I$27*100</f>
         <v>41.395348837209305</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="46">
         <f>J9/$J$27</f>
         <v>0.58379373848987104</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26"/>
-      <c r="B10" s="33"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -3524,15 +3527,15 @@
       <c r="H10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26"/>
-      <c r="B11" s="33"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -3551,15 +3554,15 @@
       <c r="H11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -3574,26 +3577,26 @@
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="34">
+      <c r="I12" s="30">
         <v>3.3</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="33">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="43">
+      <c r="K12" s="34"/>
+      <c r="L12" s="39">
         <f>I12/$I$27*100</f>
         <v>30.697674418604649</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="46">
         <f t="shared" ref="M12" si="0">J12/$J$27</f>
         <v>0.30570902394106814</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
-      <c r="B13" s="33"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -3608,15 +3611,15 @@
         <v>54</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
-      <c r="B14" s="33"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -3625,15 +3628,15 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -3644,24 +3647,24 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37">
+      <c r="I15" s="30"/>
+      <c r="J15" s="33">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="43">
+      <c r="K15" s="34"/>
+      <c r="L15" s="39">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
-      <c r="B16" s="33"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -3670,15 +3673,15 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
-      <c r="B17" s="33"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -3687,15 +3690,15 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -3706,24 +3709,24 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37">
+      <c r="I18" s="30"/>
+      <c r="J18" s="33">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="43">
+      <c r="K18" s="34"/>
+      <c r="L18" s="39">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="46">
         <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
-      <c r="B19" s="33"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -3732,15 +3735,15 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
-      <c r="B20" s="33"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -3749,15 +3752,15 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -3768,26 +3771,26 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="34">
+      <c r="I21" s="30">
         <v>3</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="33">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="43">
+      <c r="K21" s="34"/>
+      <c r="L21" s="39">
         <f>I21/$I$27*100</f>
         <v>27.906976744186046</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="46">
         <f t="shared" ref="M21" si="3">J21/$J$27</f>
         <v>0.11049723756906077</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
-      <c r="B22" s="33"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -3798,15 +3801,15 @@
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="31"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:13" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
-      <c r="B23" s="33"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -3815,15 +3818,15 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -3834,24 +3837,24 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37">
+      <c r="I24" s="30"/>
+      <c r="J24" s="33">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="43">
+      <c r="K24" s="34"/>
+      <c r="L24" s="39">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="46">
         <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
-      <c r="B25" s="33"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -3860,15 +3863,15 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="31"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
-      <c r="B26" s="33"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -3877,13 +3880,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -3892,25 +3895,25 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <f>SUM(I9:I26)</f>
         <v>10.75</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <f>SUM(J9:K26)</f>
         <v>27.150000000000002</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="46">
+      <c r="K27" s="40"/>
+      <c r="L27" s="42">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="46">
         <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -3919,13 +3922,13 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -3934,21 +3937,34 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="29"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -3957,26 +3973,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3994,69 +3997,69 @@
       <selection activeCell="M27" sqref="B9:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="3"/>
       <c r="L1" s="15"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="3"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="3"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="3"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="3"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
+    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -4087,8 +4090,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -4109,25 +4112,25 @@
       <c r="H9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="30">
         <v>4.75</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="33">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="38"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="47">
         <f>I9/$I$27</f>
         <v>0.51351351351351349</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="46">
         <f>J9/$J$27</f>
         <v>0.56593406593406592</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
+    <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -4144,14 +4147,14 @@
       <c r="H10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="47"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -4170,14 +4173,14 @@
       <c r="H11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="47"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -4188,25 +4191,25 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="34">
+      <c r="I12" s="30">
         <v>2</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="33">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="47">
         <f t="shared" ref="L12" si="0">I12/$I$27</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="46">
         <f t="shared" ref="M12" si="1">J12/$J$27</f>
         <v>0.28296703296703296</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
+    <row r="13" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -4217,14 +4220,14 @@
       <c r="H13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="47"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -4233,14 +4236,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="47"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -4251,23 +4254,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37">
+      <c r="I15" s="30"/>
+      <c r="J15" s="33">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="47">
         <f t="shared" ref="L15" si="2">I15/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <f t="shared" ref="M15" si="3">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -4276,14 +4279,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="47"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -4292,14 +4295,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="47"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="33" t="s">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -4310,23 +4313,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37">
+      <c r="I18" s="30"/>
+      <c r="J18" s="33">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="47">
         <f t="shared" ref="L18" si="4">I18/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="46">
         <f t="shared" ref="M18" si="5">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33"/>
+    <row r="19" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -4335,14 +4338,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -4351,14 +4354,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="47"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="33" t="s">
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -4369,25 +4372,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="34">
+      <c r="I21" s="30">
         <v>2.5</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="33">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="38"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="47">
         <f t="shared" ref="L21" si="6">I21/$I$27</f>
         <v>0.27027027027027029</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="46">
         <f t="shared" ref="M21" si="7">J21/$J$27</f>
         <v>0.15109890109890106</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="33"/>
+    <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="29"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -4400,14 +4403,14 @@
       <c r="H22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="47"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="33"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -4416,14 +4419,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="33" t="s">
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -4434,23 +4437,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37">
+      <c r="I24" s="30"/>
+      <c r="J24" s="33">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="47">
         <f t="shared" ref="L24" si="8">I24/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="46">
         <f t="shared" ref="M24" si="9">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="33"/>
+    <row r="25" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -4459,14 +4462,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="47"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="33"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="29"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -4475,13 +4478,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -4489,25 +4492,25 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <f>SUM(I9:I26)</f>
         <v>9.25</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <f>SUM(J9:K26)</f>
         <v>36.400000000000006</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="47">
         <f t="shared" ref="L27" si="10">I27/$I$27</f>
         <v>1</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="46">
         <f t="shared" ref="M27" si="11">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -4515,13 +4518,13 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="47"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -4529,21 +4532,34 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="47"/>
-      <c r="M29" s="29"/>
+      <c r="M29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -4552,26 +4568,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4588,68 +4591,68 @@
       <selection activeCell="J9" sqref="J9:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.08984375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+    <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -4680,8 +4683,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -4694,41 +4697,43 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="34">
-        <v>2</v>
-      </c>
-      <c r="J9" s="37">
+      <c r="I9" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="J9" s="33">
         <f>SUM(I9,'WK 5 13-02-23'!J9:K11)</f>
-        <v>22.6</v>
-      </c>
-      <c r="K9" s="38"/>
+        <v>24.1</v>
+      </c>
+      <c r="K9" s="34"/>
       <c r="L9" s="47">
         <f>I9/$I$27</f>
         <v>1</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="46">
         <f>J9/$J$27</f>
-        <v>0.58854166666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
+        <v>0.60401002506265655</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="47"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -4737,14 +4742,14 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="47"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -4755,23 +4760,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="37">
+      <c r="I12" s="30"/>
+      <c r="J12" s="33">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="47">
         <f t="shared" ref="L12" si="0">I12/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="46">
         <f t="shared" ref="M12" si="1">J12/$J$27</f>
-        <v>0.26822916666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
+        <v>0.25814536340852129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -4780,14 +4785,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="47"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -4796,14 +4801,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="47"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -4814,23 +4819,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37">
+      <c r="I15" s="30"/>
+      <c r="J15" s="33">
         <f>SUM(I15,'WK 5 13-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="47">
         <f t="shared" ref="L15" si="2">I15/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <f t="shared" ref="M15" si="3">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -4839,14 +4844,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="47"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -4855,14 +4860,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="47"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="33" t="s">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -4873,23 +4878,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37">
+      <c r="I18" s="30"/>
+      <c r="J18" s="33">
         <f>SUM(I18,'WK 5 13-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="47">
         <f t="shared" ref="L18" si="4">I18/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="46">
         <f t="shared" ref="M18" si="5">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33"/>
+    <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -4898,14 +4903,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -4914,14 +4919,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="47"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="33" t="s">
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -4932,23 +4937,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="37">
+      <c r="I21" s="30"/>
+      <c r="J21" s="33">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="38"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="47">
         <f t="shared" ref="L21" si="6">I21/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="46">
         <f t="shared" ref="M21" si="7">J21/$J$27</f>
-        <v>0.14322916666666666</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="33"/>
+        <v>0.13784461152882205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="29"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -4957,14 +4962,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="47"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="33"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -4973,14 +4978,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="33" t="s">
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -4991,23 +4996,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37">
+      <c r="I24" s="30"/>
+      <c r="J24" s="33">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="47">
         <f t="shared" ref="L24" si="8">I24/$I$27</f>
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="46">
         <f t="shared" ref="M24" si="9">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="33"/>
+    <row r="25" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -5016,14 +5021,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="47"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="33"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="29"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -5032,13 +5037,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -5046,25 +5051,25 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <f>SUM(I9:I26)</f>
-        <v>2</v>
-      </c>
-      <c r="J27" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="J27" s="40">
         <f>SUM(J9:K26)</f>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45">
+        <v>39.900000000000006</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="46">
         <f t="shared" ref="M27" si="10">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -5072,13 +5077,13 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -5086,21 +5091,34 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="29"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -5109,26 +5127,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5145,68 +5150,68 @@
       <selection activeCell="M27" sqref="B9:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.08984375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -5237,8 +5242,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -5249,23 +5254,23 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="37">
+      <c r="I9" s="30"/>
+      <c r="J9" s="33">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
-        <v>22.6</v>
-      </c>
-      <c r="K9" s="38"/>
+        <v>24.1</v>
+      </c>
+      <c r="K9" s="34"/>
       <c r="L9" s="47" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="46">
         <f>J9/$J$27</f>
-        <v>0.58854166666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
+        <v>0.60401002506265655</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -5274,14 +5279,14 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="47"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -5290,14 +5295,14 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="47"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -5308,23 +5313,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="37">
+      <c r="I12" s="30"/>
+      <c r="J12" s="33">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="47" t="e">
         <f t="shared" ref="L12" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="46">
         <f t="shared" ref="M12" si="1">J12/$J$27</f>
-        <v>0.26822916666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
+        <v>0.25814536340852129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -5333,14 +5338,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="47"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -5349,14 +5354,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="47"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -5367,23 +5372,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37">
+      <c r="I15" s="30"/>
+      <c r="J15" s="33">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="47" t="e">
         <f t="shared" ref="L15" si="2">I15/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <f t="shared" ref="M15" si="3">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -5392,14 +5397,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="47"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -5408,14 +5413,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="47"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="33" t="s">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -5426,23 +5431,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37">
+      <c r="I18" s="30"/>
+      <c r="J18" s="33">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="47" t="e">
         <f t="shared" ref="L18" si="4">I18/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="46">
         <f t="shared" ref="M18" si="5">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -5451,14 +5456,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -5467,14 +5472,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="47"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="33" t="s">
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -5485,23 +5490,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="37">
+      <c r="I21" s="30"/>
+      <c r="J21" s="33">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="38"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="47" t="e">
         <f t="shared" ref="L21" si="6">I21/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="46">
         <f t="shared" ref="M21" si="7">J21/$J$27</f>
-        <v>0.14322916666666666</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="33"/>
+        <v>0.13784461152882205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="29"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -5510,14 +5515,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="47"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="33"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="2:13" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -5526,14 +5531,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="33" t="s">
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -5544,23 +5549,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37">
+      <c r="I24" s="30"/>
+      <c r="J24" s="33">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="47" t="e">
         <f t="shared" ref="L24" si="8">I24/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="46">
         <f t="shared" ref="M24" si="9">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="33"/>
+    <row r="25" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -5569,14 +5574,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="47"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="33"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="29"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -5585,13 +5590,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -5599,22 +5604,22 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <f>SUM(J9:K26)</f>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="K27" s="44"/>
+        <v>39.900000000000006</v>
+      </c>
+      <c r="K27" s="40"/>
       <c r="L27" s="49"/>
-      <c r="M27" s="29">
+      <c r="M27" s="46">
         <f t="shared" ref="M27" si="10">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -5622,13 +5627,13 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="49"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -5636,21 +5641,34 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="49"/>
-      <c r="M29" s="29"/>
+      <c r="M29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -5659,26 +5677,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5695,57 +5700,57 @@
       <selection activeCell="M27" sqref="B9:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J1" s="2"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J2" s="2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J3" s="2"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J4" s="2"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J5" s="2"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="2"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -5776,8 +5781,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -5788,23 +5793,23 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="37">
+      <c r="I9" s="30"/>
+      <c r="J9" s="33">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
-        <v>22.6</v>
-      </c>
-      <c r="K9" s="38"/>
+        <v>24.1</v>
+      </c>
+      <c r="K9" s="34"/>
       <c r="L9" s="47" t="e">
         <f>I9/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="46">
         <f>J9/$J$27</f>
-        <v>0.58854166666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
+        <v>0.60401002506265655</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -5813,14 +5818,14 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="47"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -5829,14 +5834,14 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="47"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -5847,23 +5852,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="37">
+      <c r="I12" s="30"/>
+      <c r="J12" s="33">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="47" t="e">
         <f>I12/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="46">
         <f t="shared" ref="M12" si="0">J12/$J$27</f>
-        <v>0.26822916666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
+        <v>0.25814536340852129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -5872,14 +5877,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="47"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -5888,14 +5893,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="47"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -5906,23 +5911,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37">
+      <c r="I15" s="30"/>
+      <c r="J15" s="33">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="47" t="e">
         <f>I15/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="46">
         <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -5931,14 +5936,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="47"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -5947,14 +5952,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="47"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="33" t="s">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -5965,23 +5970,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37">
+      <c r="I18" s="30"/>
+      <c r="J18" s="33">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="47" t="e">
         <f>I18/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="46">
         <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33"/>
+    <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -5990,14 +5995,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -6006,14 +6011,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="47"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="33" t="s">
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -6024,23 +6029,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="37">
+      <c r="I21" s="30"/>
+      <c r="J21" s="33">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="38"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="47" t="e">
         <f>I21/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="46">
         <f t="shared" ref="M21" si="3">J21/$J$27</f>
-        <v>0.14322916666666666</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="33"/>
+        <v>0.13784461152882205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="29"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -6049,14 +6054,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="47"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="33"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="2:13" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -6065,14 +6070,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="33" t="s">
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -6083,23 +6088,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37">
+      <c r="I24" s="30"/>
+      <c r="J24" s="33">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="47" t="e">
         <f>I24/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="46">
         <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="33"/>
+    <row r="25" spans="2:13" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="29"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -6108,14 +6113,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="47"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="33"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="29"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -6124,13 +6129,13 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -6138,22 +6143,22 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <f>SUM(J9:K26)</f>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="K27" s="44"/>
+        <v>39.900000000000006</v>
+      </c>
+      <c r="K27" s="40"/>
       <c r="L27" s="49"/>
-      <c r="M27" s="29">
+      <c r="M27" s="46">
         <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -6161,13 +6166,13 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="49"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -6175,21 +6180,34 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="49"/>
-      <c r="M29" s="29"/>
+      <c r="M29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -6198,26 +6216,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
